--- a/Módulos/005_Projeto_de_iniciação/avaliacao_proj0.xlsx
+++ b/Módulos/005_Projeto_de_iniciação/avaliacao_proj0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuísEncerrabodes\Documents\GitHub\uControllers\Módulos\005_Projeto_de_iniciação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGoncalves\Documents\GitHub\uControllers\Módulos\005_Projeto_de_iniciação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEF42E5-8654-42D2-8277-8916EDB9D59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB122FE-C0EC-4F5B-B4E1-C2D2600A9267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96176060-1FAE-457F-AC04-57D50351FCF7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{96176060-1FAE-457F-AC04-57D50351FCF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>N.º mecanográfico</t>
   </si>
@@ -167,13 +167,19 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>duvidas no porque de utilizar 4095, mas chegaram lá</t>
+  </si>
+  <si>
+    <t>Jore Vieira</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +191,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -267,11 +281,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,20 +607,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9689FA48-CC26-455A-9735-EF85F01A8D08}">
-  <dimension ref="B1:N32"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="E1" t="s">
         <v>41</v>
       </c>
@@ -621,25 +642,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F2" s="10" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,11 +697,11 @@
       <c r="M3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <v>1181754</v>
       </c>
@@ -722,7 +743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="7">
         <v>1190762</v>
       </c>
@@ -732,18 +753,36 @@
       <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12">
+        <v>1</v>
+      </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <v>1190924</v>
       </c>
@@ -766,7 +805,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <v>1200714</v>
       </c>
@@ -789,7 +828,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>1200890</v>
       </c>
@@ -799,18 +838,36 @@
       <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="E8" s="6">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>1200892</v>
       </c>
@@ -820,7 +877,9 @@
       <c r="D9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -831,7 +890,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>1200909</v>
       </c>
@@ -841,18 +900,36 @@
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>1200968</v>
       </c>
@@ -875,7 +952,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>1200969</v>
       </c>
@@ -898,7 +975,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
         <v>1201005</v>
       </c>
@@ -921,7 +998,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>1201050</v>
       </c>
@@ -944,7 +1021,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7">
         <v>1201128</v>
       </c>
@@ -967,7 +1044,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>1201132</v>
       </c>
@@ -990,7 +1067,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7">
         <v>1201150</v>
       </c>
@@ -1013,7 +1090,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>1201164</v>
       </c>
@@ -1023,18 +1100,36 @@
       <c r="D18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="E18" s="6">
+        <v>3</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" s="7">
         <v>1201171</v>
       </c>
@@ -1044,18 +1139,36 @@
       <c r="D19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="E19" s="9">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>1201223</v>
       </c>
@@ -1065,18 +1178,39 @@
       <c r="D20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="E20" s="6">
+        <v>4</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
       <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" s="7">
         <v>1201233</v>
       </c>
@@ -1086,7 +1220,9 @@
       <c r="D21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9">
+        <v>2</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1097,7 +1233,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>1201360</v>
       </c>
@@ -1107,7 +1243,9 @@
       <c r="D22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6">
+        <v>4</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1118,7 +1256,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7">
         <v>1201362</v>
       </c>
@@ -1141,7 +1279,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>1201370</v>
       </c>
@@ -1151,7 +1289,9 @@
       <c r="D24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6">
+        <v>7</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1162,7 +1302,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <v>1201373</v>
       </c>
@@ -1185,7 +1325,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>1201441</v>
       </c>
@@ -1208,7 +1348,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="7">
         <v>1201482</v>
       </c>
@@ -1231,7 +1371,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <v>1201576</v>
       </c>
@@ -1241,18 +1381,36 @@
       <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="E28" s="6">
+        <v>5</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" s="7">
         <v>1201672</v>
       </c>
@@ -1262,18 +1420,36 @@
       <c r="D29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="E29" s="9">
+        <v>5</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1</v>
+      </c>
+      <c r="J29" s="9">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <v>1201674</v>
       </c>
@@ -1283,7 +1459,9 @@
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6">
+        <v>4</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1294,7 +1472,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" s="7">
         <v>1201675</v>
       </c>
@@ -1304,18 +1482,36 @@
       <c r="D31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="E31" s="9">
+        <v>6</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
         <v>1200929</v>
       </c>
@@ -1338,8 +1534,22 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>1200908</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:N32" xr:uid="{9689FA48-CC26-455A-9735-EF85F01A8D08}"/>
+  <autoFilter ref="B3:N32" xr:uid="{9689FA48-CC26-455A-9735-EF85F01A8D08}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2B"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -1347,5 +1557,6 @@
     <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>